--- a/src/main/resources/Resources.xlsx
+++ b/src/main/resources/Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkbuh\java\deep-down-project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE223F2-DD96-420F-8310-B5F3F5E332B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037240B0-2F45-4BE9-9734-6DF03A5AC013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{482065D1-BD54-417D-93F5-53B3BF1318E2}"/>
+    <workbookView xWindow="4560" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{482065D1-BD54-417D-93F5-53B3BF1318E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 0 (5)" sheetId="4" r:id="rId1"/>
@@ -1143,9 +1143,6 @@
     <t>Oxygen x 5_x000D_,Gas cylinder x 1_x000D_,Compressor x 1</t>
   </si>
   <si>
-    <t>Graphite x 1,000_x000D_,Green Laser x 10_x000D_,Compressor x 1</t>
-  </si>
-  <si>
     <t>Iron bar x 5_x000D_,Rubber x 1_x000D_,Refined oil x 2</t>
   </si>
   <si>
@@ -1229,6 +1226,11 @@
   <si>
     <t>Liana Seed x 1
 ,Water x 20</t>
+  </si>
+  <si>
+    <t>Graphite x 1000
+,Green Laser x 10
+,Compressor x 1</t>
   </si>
 </sst>
 </file>
@@ -1265,23 +1267,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1307,13 +1308,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1392,9 +1395,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{88C7AF24-6220-4DA1-AF71-961DE4F95D96}" name="Table_0__5" displayName="Table_0__5" ref="A1:C276" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C276" xr:uid="{88C7AF24-6220-4DA1-AF71-961DE4F95D96}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4D506DE1-3E07-48D7-B3CD-4C074AECF670}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{71217428-D690-4E07-A70C-DECE685EEC39}" uniqueName="2" name="Type" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BFF006F4-4C38-4C03-B4AF-B645A5002D24}" uniqueName="3" name="Sell Price" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4D506DE1-3E07-48D7-B3CD-4C074AECF670}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{71217428-D690-4E07-A70C-DECE685EEC39}" uniqueName="2" name="Type" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{BFF006F4-4C38-4C03-B4AF-B645A5002D24}" uniqueName="3" name="Sell Price" queryTableFieldId="3" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1404,9 +1407,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E36FE7-657F-46C8-AE68-A01826192CE5}" name="Table_0" displayName="Table_0" ref="A1:C276" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C276" xr:uid="{29E36FE7-657F-46C8-AE68-A01826192CE5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE3B254B-F4E2-464C-8C86-2B5E60FC7150}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{49EEE235-1051-43E0-B7D8-A1348DB48CC6}" uniqueName="2" name="Type" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{13A95BEF-7F21-42DA-9A93-0C4C5DCD3E66}" uniqueName="3" name="Sell Price" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BE3B254B-F4E2-464C-8C86-2B5E60FC7150}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{49EEE235-1051-43E0-B7D8-A1348DB48CC6}" uniqueName="2" name="Type" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{13A95BEF-7F21-42DA-9A93-0C4C5DCD3E66}" uniqueName="3" name="Sell Price" queryTableFieldId="3" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1416,12 +1419,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA935F0F-353D-4272-BAF2-572511E6DEDB}" name="Table_0__2" displayName="Table_0__2" ref="A1:F85" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F85" xr:uid="{AA935F0F-353D-4272-BAF2-572511E6DEDB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CBDE50C1-D093-4E1D-B93F-5354E3BC454B}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{148025DD-13BC-4C9B-AB98-42DDFE12B72D}" uniqueName="2" name="Building Name" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FC74399B-62FE-4F42-9028-1023959B4568}" uniqueName="3" name="Time Required" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{CBDE50C1-D093-4E1D-B93F-5354E3BC454B}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{148025DD-13BC-4C9B-AB98-42DDFE12B72D}" uniqueName="2" name="Building Name" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FC74399B-62FE-4F42-9028-1023959B4568}" uniqueName="3" name="Time Required" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{1F6C52CD-84B4-4C28-9AAD-5401691BAFF3}" uniqueName="4" name="Cost To Unlock" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{69C5467A-A281-497B-9869-8C73D029129C}" uniqueName="5" name="Unlocked at Depth" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{5F7F4DAB-DE01-4FE1-9ADE-72B8B0CB0CC7}" uniqueName="6" name="Items Required" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{5F7F4DAB-DE01-4FE1-9ADE-72B8B0CB0CC7}" uniqueName="6" name="Items Required" queryTableFieldId="6" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1431,12 +1434,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F0619A5-72E3-4E22-A4D3-01CED8BD93F7}" name="Table_0__25" displayName="Table_0__25" ref="A1:F85" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F85" xr:uid="{4F0619A5-72E3-4E22-A4D3-01CED8BD93F7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A79CEC0C-1F43-4FCF-B07D-4EBBE7695E4F}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8529D22A-48CA-405E-91F8-B1613129061B}" uniqueName="2" name="Building Name" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B712BDD7-5C9F-44E7-AA42-B8BFD9DA7011}" uniqueName="3" name="Time Required" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A79CEC0C-1F43-4FCF-B07D-4EBBE7695E4F}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8529D22A-48CA-405E-91F8-B1613129061B}" uniqueName="2" name="Building Name" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B712BDD7-5C9F-44E7-AA42-B8BFD9DA7011}" uniqueName="3" name="Time Required" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{4018A64C-E3D1-4217-9FA7-4FFE5358A1A3}" uniqueName="4" name="Cost To Unlock" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{BA5DDCC3-0080-40DE-AD9C-2F9C80947351}" uniqueName="5" name="Unlocked at Depth" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{C8F448D1-7FA4-4606-81F0-283FA724F4A1}" uniqueName="6" name="Items Required" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{C8F448D1-7FA4-4606-81F0-283FA724F4A1}" uniqueName="6" name="Items Required" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1741,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7EA148-3DE1-4B84-BBD0-61F6C841B969}">
   <dimension ref="A1:C276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -7860,8 +7863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299D0789-5B47-41F0-B8EC-FE55F7C0C7C7}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8171,7 +8174,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8254,7 +8257,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -8334,7 +8337,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -8354,7 +8357,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>158</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>159</v>
       </c>
@@ -8454,7 +8457,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>94</v>
       </c>
@@ -8474,7 +8477,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -8774,7 +8777,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -8794,7 +8797,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>196</v>
       </c>
@@ -8814,7 +8817,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>156</v>
       </c>
@@ -8854,7 +8857,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>200</v>
       </c>
@@ -8874,7 +8877,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -8890,11 +8893,11 @@
       <c r="E51">
         <v>96</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8934,7 +8937,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -8951,10 +8954,10 @@
         <v>24</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>24</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9034,7 +9037,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -9051,10 +9054,10 @@
         <v>13</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -9071,10 +9074,10 @@
         <v>13</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9114,7 +9117,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>203</v>
       </c>
@@ -9131,10 +9134,10 @@
         <v>37</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>202</v>
       </c>
@@ -9151,10 +9154,10 @@
         <v>37</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
@@ -9171,10 +9174,10 @@
         <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -9191,10 +9194,10 @@
         <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -9211,10 +9214,10 @@
         <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
@@ -9231,10 +9234,10 @@
         <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -9251,10 +9254,10 @@
         <v>72</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -9271,10 +9274,10 @@
         <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
@@ -9291,10 +9294,10 @@
         <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
@@ -9311,10 +9314,10 @@
         <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -9331,10 +9334,10 @@
         <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>37</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9374,7 +9377,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
@@ -9391,10 +9394,10 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>185</v>
       </c>
@@ -9411,10 +9414,10 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
@@ -9431,10 +9434,10 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>111</v>
       </c>
@@ -9451,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>112</v>
       </c>
@@ -9471,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>113</v>
       </c>
@@ -9491,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
@@ -9511,10 +9514,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>121</v>
       </c>
@@ -9531,10 +9534,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>109</v>
       </c>
@@ -9551,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,8 +9590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB75BFD-B20A-4BD8-84D9-91BE08DC8BE5}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10668,7 +10671,7 @@
       </c>
       <c r="F51" s="2" t="str">
         <f>CLEAN(Table_0__2[[#This Row],[Items Required]])</f>
-        <v>Graphite x 1,000,Green Laser x 10,Compressor x 1</v>
+        <v>Graphite x 1000,Green Laser x 10,Compressor x 1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">

--- a/src/main/resources/Resources.xlsx
+++ b/src/main/resources/Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkbuh\java\deep-down-project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDE8FB3-D8AA-4C39-A2F2-1AF5806076E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ED3123-6052-43F4-8661-181543618238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3750" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{482065D1-BD54-417D-93F5-53B3BF1318E2}"/>
+    <workbookView xWindow="7200" yWindow="3750" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{482065D1-BD54-417D-93F5-53B3BF1318E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="491">
   <si>
     <t>Title</t>
   </si>
@@ -1507,9 +1507,6 @@
   </si>
   <si>
     <t>Zeolit x 100,Compressor x 10,Steel pipe x 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA Fauna capsule </t>
   </si>
   <si>
     <t>DNA Fauna capsule x 3,LCD Monitor x 30,Accumulator x 1000</t>
@@ -5131,7 +5128,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>14</v>
@@ -8690,8 +8687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429C14D9-82E4-4037-A640-657D2FB3B862}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8862,7 +8859,7 @@
         <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8882,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8902,7 +8899,7 @@
         <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8922,7 +8919,7 @@
         <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8942,7 +8939,7 @@
         <v>108</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8962,7 +8959,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8982,7 +8979,7 @@
         <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9002,7 +8999,7 @@
         <v>108</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9022,7 +9019,7 @@
         <v>108</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9042,7 +9039,7 @@
         <v>108</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9062,7 +9059,7 @@
         <v>108</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9082,7 +9079,7 @@
         <v>108</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9102,7 +9099,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9122,7 +9119,7 @@
         <v>108</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9142,7 +9139,7 @@
         <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9382,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9482,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9662,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -10062,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10222,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -11122,7 +11119,7 @@
         <v>108</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -11182,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -11447,7 +11444,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>387</v>

--- a/src/main/resources/Resources.xlsx
+++ b/src/main/resources/Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkbuh\java\deep-down-project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ED3123-6052-43F4-8661-181543618238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3106AFF0-B1E0-42E3-BE80-F339A288905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3750" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{482065D1-BD54-417D-93F5-53B3BF1318E2}"/>
+    <workbookView xWindow="6315" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{482065D1-BD54-417D-93F5-53B3BF1318E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="4" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="494">
   <si>
     <t>Title</t>
   </si>
@@ -1543,6 +1543,15 @@
   </si>
   <si>
     <t>Gas cylinder x 100,Motherboard x 1000,Electrical Engine x 10</t>
+  </si>
+  <si>
+    <t>3 Seconds</t>
+  </si>
+  <si>
+    <t>Clean Water x 0.5</t>
+  </si>
+  <si>
+    <t>7 Minutes 30 Seconds</t>
   </si>
 </sst>
 </file>
@@ -5150,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299D0789-5B47-41F0-B8EC-FE55F7C0C7C7}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5741,7 +5750,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>301</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6877,8 +6886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB75BFD-B20A-4BD8-84D9-91BE08DC8BE5}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F85" sqref="A1:F85"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7486,7 +7495,7 @@
         <v>294</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>300</v>
+        <v>493</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7496,7 +7505,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f>CLEAN(Table_0__2[[#This Row],[Items Required]])</f>
-        <v>Clean Water x 1</v>
+        <v>Clean Water x 0.5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8687,8 +8696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429C14D9-82E4-4037-A640-657D2FB3B862}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9430,7 +9439,7 @@
         <v>294</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>304</v>
+        <v>491</v>
       </c>
       <c r="D37">
         <v>610000</v>
@@ -9530,7 +9539,7 @@
         <v>294</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D42">
         <v>575000</v>
